--- a/biology/Zoologie/Chaetopelma_olivaceum/Chaetopelma_olivaceum.xlsx
+++ b/biology/Zoologie/Chaetopelma_olivaceum/Chaetopelma_olivaceum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaetopelma olivaceum est une espèce d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaetopelma olivaceum est une espèce d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Proche-Orient, en Égypte, au Soudan et à Chypre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Proche-Orient, en Égypte, au Soudan et à Chypre.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces Chaetopelma gracile (Ausserer, 1871), Chaetopelma jerusalemensis (Smith, 1990), Chaetopelma shabati Hassan, 1950, Chaetopelma syriacum (Ausserer, 1871) et Chaetopelma tetramerum (Simon, 1873) ont été placées en synonymie avec Chaetopelma olivaceum par Guadanucci et Gallon en 2008[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces Chaetopelma gracile (Ausserer, 1871), Chaetopelma jerusalemensis (Smith, 1990), Chaetopelma shabati Hassan, 1950, Chaetopelma syriacum (Ausserer, 1871) et Chaetopelma tetramerum (Simon, 1873) ont été placées en synonymie avec Chaetopelma olivaceum par Guadanucci et Gallon en 2008
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>C. L. Koch, 1841 : Die Arachniden. Nürnberg, Achter Band, p. 41-131 Neunter Band, p. 1-56.</t>
         </is>
